--- a/doc/Fiff_MNE_Functions.xlsx
+++ b/doc/Fiff_MNE_Functions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>fiff_copy_tree.m</t>
   </si>
@@ -427,9 +427,6 @@
   </si>
   <si>
     <t>Verified</t>
-  </si>
-  <si>
-    <t>Finalized</t>
   </si>
   <si>
     <t>Comments</t>
@@ -490,14 +487,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -535,9 +535,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,7 +572,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,7 +607,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -781,51 +781,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>131</v>
       </c>
       <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -833,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -841,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -849,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -857,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -865,12 +862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -878,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -886,12 +883,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -899,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -907,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -915,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -923,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -931,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -939,12 +936,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -952,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -960,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -968,12 +965,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -981,12 +978,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -994,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1010,12 +1007,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1023,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1031,12 +1028,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1044,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1052,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1068,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1076,17 +1073,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1094,17 +1091,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1112,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1120,17 +1117,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1138,32 +1135,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1171,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1179,17 +1176,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1205,13 +1202,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1219,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1227,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1235,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1243,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1251,17 +1248,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1269,12 +1266,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1290,22 +1287,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1313,22 +1310,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1336,17 +1333,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1354,52 +1351,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1407,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -1415,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -1423,22 +1420,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -1446,17 +1443,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -1464,12 +1461,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -1477,17 +1474,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -1495,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -1503,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -1511,22 +1508,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -1534,122 +1531,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B133">
         <f>SUM(B2:B132)</f>
         <v>56</v>
@@ -1667,7 +1664,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1679,7 +1676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
